--- a/工作记录_2025.xlsx
+++ b/工作记录_2025.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,6 +598,25 @@
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21:21-21:21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1、#45 正火 T=840℃ 保温时间=2h 
+2、修改小论文
+3、磨了800 820 840的三个样进行硬度测试</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
